--- a/input.xlsx
+++ b/input.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. Game\WLOM\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7560F4BF-9F8C-4F78-AC89-ED97C15D0F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760D0A2B-963F-409D-9C4A-90A2766DEC6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trên 10 tháng" sheetId="3" r:id="rId1"/>
     <sheet name="Trên 18 tháng" sheetId="4" r:id="rId2"/>
     <sheet name="Trên 30 tháng" sheetId="6" r:id="rId3"/>
     <sheet name="Trên 36 tháng" sheetId="5" r:id="rId4"/>
-    <sheet name="test" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -95,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="356">
   <si>
     <t>Stt</t>
   </si>
@@ -1184,18 +1183,6 @@
   </si>
   <si>
     <t>Đề thi gồm 50 câu cơ bản</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>fff</t>
   </si>
 </sst>
 </file>
@@ -3688,7 +3675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB72D46-AC08-E84A-ADDC-A6180E550383}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3990,128 +3977,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585B6AAD-9082-48E6-B07A-ED9060C9ED9F}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>